--- a/doc/外部設計書/04_外部設計書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_外部設計書_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D95CA-2A41-4201-8756-24EAD482FF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F8C34-D849-409A-A1B5-150BA08DFBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="525" windowWidth="18765" windowHeight="10275" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップ_各機能の詳細" sheetId="12" r:id="rId1"/>
@@ -808,30 +808,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,9 +841,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,6 +858,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15159,7 +15159,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>の設定</a:t>
+            <a:t>の設定                                                                  ＋                                               </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0">
             <a:solidFill>
@@ -23742,156 +23742,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="26" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="27">
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44">
         <v>44720</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28435,156 +28435,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="26" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="27">
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44">
         <v>44720</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33070,63 +33070,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -33135,39 +33135,39 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="AG2" s="52"/>
-      <c r="AH2" s="27">
+      <c r="AH2" s="44">
         <v>44720</v>
       </c>
       <c r="AI2" s="53"/>
@@ -33178,21 +33178,21 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -37617,7 +37617,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
@@ -37627,154 +37627,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="25"/>
+      <c r="X2" s="42"/>
       <c r="Y2" s="55">
         <v>44720</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="26" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -42268,7 +42268,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
@@ -42278,61 +42278,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -42341,34 +42341,34 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
@@ -42382,21 +42382,21 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -46803,7 +46803,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BF18" sqref="BF18"/>
     </sheetView>
   </sheetViews>
@@ -46813,61 +46813,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -46876,34 +46876,34 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
@@ -46917,21 +46917,21 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -51338,7 +51338,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
@@ -51348,63 +51348,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -51413,39 +51413,39 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="AG2" s="52"/>
-      <c r="AH2" s="27">
+      <c r="AH2" s="44">
         <v>44720</v>
       </c>
       <c r="AI2" s="53"/>
@@ -51456,21 +51456,21 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -55878,7 +55878,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -55887,61 +55887,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -55950,34 +55950,34 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
@@ -55991,21 +55991,21 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -60412,7 +60412,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
@@ -60422,61 +60422,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="41" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -60485,34 +60485,34 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
@@ -60526,21 +60526,21 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
